--- a/CutvDelete/cutvdel.xlsx
+++ b/CutvDelete/cutvdel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\CutvDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA1A74-1B56-4BE3-9EEC-DF51BC1EC81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DDBAB-1F03-442F-8E1E-96549308ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,55 +346,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1741</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1669</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1722</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1617</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1618</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1619</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1620</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1732</v>
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2740</v>
       </c>
     </row>
   </sheetData>

--- a/CutvDelete/cutvdel.xlsx
+++ b/CutvDelete/cutvdel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\CutvDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DDBAB-1F03-442F-8E1E-96549308ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA45BD-B4C9-43FC-A35C-9899E50D6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,122 +346,4172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2733</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2744</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2745</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2743</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2750</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2742</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2735</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2748</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2752</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2734</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2749</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2747</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2746</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2751</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2739</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2754</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2738</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2736</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2741</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2753</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2737</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2740</v>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>3109</v>
       </c>
     </row>
   </sheetData>
